--- a/biology/Médecine/Axe_gonadotrope/Axe_gonadotrope.xlsx
+++ b/biology/Médecine/Axe_gonadotrope/Axe_gonadotrope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'axe gonadotrope est un ensemble de structures physiologiques intervenant dans la régulation de la reproduction chez les mammifères : organes génitaux, hypophyse et hypothalamus. Il est notamment sous l'influence de facteurs internes et externes comme la photopériode et les perturbateurs endocriniens. 
  Portail de la médecine   Portail de la physiologie   Portail de l’anatomie                   </t>
